--- a/tests/data_for_testing/deriv_compounds_properties.xlsx
+++ b/tests/data_for_testing/deriv_compounds_properties.xlsx
@@ -558,55 +558,55 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>myristic acid, tms derivative</t>
+          <t>(9z,12z)-octadeca-9,12-dienoic acid, deriv.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>tetradecanoic acid</t>
+          <t>(9z,12z)-octadeca-9,12-dienoic acid</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C14H28O2</t>
+          <t>C18H32O2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCCCC(=O)O</t>
+          <t>CCCCCC=CCC=CCCCCCCCC(=O)O</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>228.37</v>
+        <v>280.4</v>
       </c>
       <c r="F2" t="n">
-        <v>5.3</v>
+        <v>6.8</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>myristic acid</t>
+          <t>(9z,12z)-octadeca-9,12-dienoic acid</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I2" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7363226343214958</v>
+        <v>0.7710342368045648</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1235889127293427</v>
+        <v>0.1150356633380885</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1401147261023777</v>
+        <v>0.1141155492154066</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8029031834303979</v>
+        <v>0.8396398002853066</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -630,67 +630,67 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1971230897228183</v>
+        <v>0.1605456490727532</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1.000018163654527</v>
+        <v>1.000038998518056</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>palmitelaidic acid, tms derivative</t>
+          <t>9-octadecenoic acid, (z)-, tms derivative</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>(e)-hexadec-9-enoic acid</t>
+          <t>(z)-octadec-9-enoic acid</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C16H30O2</t>
+          <t>C18H34O2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CCCCCCC=CCCCCCCCC(=O)O</t>
+          <t>CCCCCCCCC=CCCCCCCCC(=O)O</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>254.41</v>
+        <v>282.5</v>
       </c>
       <c r="F3" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>palmitelaidic acid</t>
+          <t>9-octadecenoic acid, (z)-</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I3" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7553791124562713</v>
+        <v>0.7653026548672566</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1188632522306513</v>
+        <v>0.121316814159292</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1257733579654888</v>
+        <v>0.1132672566371681</v>
       </c>
       <c r="N3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8230690617507173</v>
+        <v>0.8405345132743363</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -714,67 +714,67 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1769466609016941</v>
+        <v>0.1593522123893805</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1.000018163654527</v>
+        <v>1.000038998518056</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>palmitic acid, tms derivative</t>
+          <t>4-oxopentanoic acid, deriv.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>hexadecanoic acid</t>
+          <t>4-oxopentanoic acid</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C16H32O2</t>
+          <t>C5H8O3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCCCCCC(=O)O</t>
+          <t>CC(=O)CCC(=O)O</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>256.42</v>
+        <v>116.11</v>
       </c>
       <c r="F4" t="n">
-        <v>6.4</v>
+        <v>-0.5</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>palmitic acid</t>
+          <t>4-oxopentanoic acid</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7494579205990172</v>
+        <v>0.5172250452157436</v>
       </c>
       <c r="L4" t="n">
-        <v>0.125793619842446</v>
+        <v>0.06945138230987856</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1247874580765931</v>
+        <v>0.413375247610025</v>
       </c>
       <c r="N4" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8244793697839481</v>
+        <v>0.1208078546206184</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -798,148 +798,148 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1755596287341081</v>
+        <v>0.3877099302385669</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>0.491533890276462</v>
       </c>
       <c r="X4" t="n">
-        <v>1.000018163654527</v>
+        <v>1.000038998518056</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>9,12-octadecadienoic acid (z,z)-, tms derivative</t>
+          <t>benzene-1,2-diol, deriv.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>(9z,12z)-octadeca-9,12-dienoic acid</t>
+          <t>benzene-1,2-diol</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C18H32O2</t>
+          <t>C6H6O2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CCCCCC=CCC=CCCCCCCCC(=O)O</t>
+          <t>C1=CC=C(C(=C1)O)O</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>280.4</v>
+        <v>110.11</v>
       </c>
       <c r="F5" t="n">
-        <v>6.8</v>
+        <v>0.9</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>9,12-octadecadienoic acid (z,z)-</t>
+          <t>benzene-1,2-diol</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
         <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7710342368045648</v>
+        <v>0.6544909635818728</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1150356633380885</v>
+        <v>0.05492689129052766</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1141155492154066</v>
+        <v>0.2906003087821269</v>
       </c>
       <c r="N5" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8396398002853066</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.6911088911088911</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.3089092725456362</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1605456490727532</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>1.000018163654527</v>
+        <v>1.000038998518056</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>9-octadecenoic acid, (z)-, tms derivative</t>
+          <t>9,12-octadecadienoic acid (z,z)-, tms derivative</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>(z)-octadec-9-enoic acid</t>
+          <t>(9z,12z)-octadeca-9,12-dienoic acid</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C18H34O2</t>
+          <t>C18H32O2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CCCCCCCCC=CCCCCCCCC(=O)O</t>
+          <t>CCCCCC=CCC=CCCCCCCCC(=O)O</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>282.5</v>
+        <v>280.4</v>
       </c>
       <c r="F6" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>9-octadecenoic acid, (z)-</t>
+          <t>9,12-octadecadienoic acid (z,z)-</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>18</v>
       </c>
       <c r="I6" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J6" t="n">
         <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7653026548672566</v>
+        <v>0.7710342368045648</v>
       </c>
       <c r="L6" t="n">
-        <v>0.121316814159292</v>
+        <v>0.1150356633380885</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1132672566371681</v>
+        <v>0.1141155492154066</v>
       </c>
       <c r="N6" t="n">
         <v>17</v>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8405345132743363</v>
+        <v>0.8396398002853066</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -966,70 +966,70 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1593522123893805</v>
+        <v>0.1605456490727532</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>1.000018163654527</v>
+        <v>1.000038998518056</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>benzoic acid, deriv.</t>
+          <t>palmitic acid, tms derivative</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>benzoic acid</t>
+          <t>hexadecanoic acid</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C7H6O2</t>
+          <t>C16H32O2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>C1=CC=C(C=C1)C(=O)O</t>
+          <t>CCCCCCCCCCCCCCCC(=O)O</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>122.12</v>
+        <v>256.42</v>
       </c>
       <c r="F7" t="n">
-        <v>1.9</v>
+        <v>6.4</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>benzoic acid</t>
+          <t>palmitic acid</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="J7" t="n">
         <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6884785456927611</v>
+        <v>0.7494579205990172</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04952505732066819</v>
+        <v>0.125793619842446</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2620209629872257</v>
+        <v>0.1247874580765931</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1041,160 +1041,160 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.8244793697839481</v>
       </c>
       <c r="T7" t="n">
-        <v>0.6313953488372093</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3686292171634458</v>
+        <v>0.1755596287341081</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>1.000018163654527</v>
+        <v>1.000038998518056</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>hexadecanoic acid, deriv.</t>
+          <t>phenol, deriv.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>hexadecanoic acid</t>
+          <t>phenol</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C16H32O2</t>
+          <t>C6H6O</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCCCCCC(=O)O</t>
+          <t>C1=CC=C(C=C1)O</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>256.42</v>
+        <v>94.11</v>
       </c>
       <c r="F8" t="n">
-        <v>6.4</v>
+        <v>1.5</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>hexadecanoic acid</t>
+          <t>phenol</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7494579205990172</v>
+        <v>0.765763468281798</v>
       </c>
       <c r="L8" t="n">
-        <v>0.125793619842446</v>
+        <v>0.06426522154925088</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1247874580765931</v>
+        <v>0.1700031877590054</v>
       </c>
       <c r="N8" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8244793697839481</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.8193178195728402</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.1807140580172139</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1755596287341081</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>1.000018163654527</v>
+        <v>1.000038998518056</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>(9z,12z)-octadeca-9,12-dienoic acid, deriv.</t>
+          <t>myristic acid, tms derivative</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>(9z,12z)-octadeca-9,12-dienoic acid</t>
+          <t>tetradecanoic acid</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C18H32O2</t>
+          <t>C14H28O2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CCCCCC=CCC=CCCCCCCCC(=O)O</t>
+          <t>CCCCCCCCCCCCCC(=O)O</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>280.4</v>
+        <v>228.37</v>
       </c>
       <c r="F9" t="n">
-        <v>6.8</v>
+        <v>5.3</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>(9z,12z)-octadeca-9,12-dienoic acid</t>
+          <t>myristic acid</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I9" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J9" t="n">
         <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7710342368045648</v>
+        <v>0.7363226343214958</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1150356633380885</v>
+        <v>0.1235889127293427</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1141155492154066</v>
+        <v>0.1401147261023777</v>
       </c>
       <c r="N9" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8396398002853066</v>
+        <v>0.8029031834303979</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1218,67 +1218,67 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0.1605456490727532</v>
+        <v>0.1971230897228183</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>1.000018163654527</v>
+        <v>1.000038998518056</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>9-octadecenoic acid, (e)-, deriv.</t>
+          <t>palmitelaidic acid, tms derivative</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>(e)-octadec-9-enoic acid</t>
+          <t>(e)-hexadec-9-enoic acid</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C18H34O2</t>
+          <t>C16H30O2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CCCCCCCCC=CCCCCCCCC(=O)O</t>
+          <t>CCCCCCC=CCCCCCCCC(=O)O</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>282.5</v>
+        <v>254.41</v>
       </c>
       <c r="F10" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>9-octadecenoic acid, (e)-</t>
+          <t>palmitelaidic acid</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I10" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J10" t="n">
         <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7653026548672566</v>
+        <v>0.7553791124562713</v>
       </c>
       <c r="L10" t="n">
-        <v>0.121316814159292</v>
+        <v>0.1188632522306513</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1132672566371681</v>
+        <v>0.1257733579654888</v>
       </c>
       <c r="N10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8405345132743363</v>
+        <v>0.8230690617507173</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1302,154 +1302,154 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0.1593522123893805</v>
+        <v>0.1769466609016941</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>1.000018163654527</v>
+        <v>1.000038998518056</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>phenol, deriv.</t>
+          <t>9-octadecenoic acid, (e)-, deriv.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>phenol</t>
+          <t>(e)-octadec-9-enoic acid</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C6H6O</t>
+          <t>C18H34O2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>C1=CC=C(C=C1)O</t>
+          <t>CCCCCCCCC=CCCCCCCCC(=O)O</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>94.11</v>
+        <v>282.5</v>
       </c>
       <c r="F11" t="n">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>phenol</t>
+          <t>9-octadecenoic acid, (e)-</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.7653026548672566</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.121316814159292</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.1132672566371681</v>
+      </c>
+      <c r="N11" t="n">
+        <v>17</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>1</v>
       </c>
-      <c r="K11" t="n">
-        <v>0.765763468281798</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.06426522154925088</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.1700031877590054</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>6</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>0.8405345132743363</v>
       </c>
       <c r="T11" t="n">
-        <v>0.8193178195728402</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1807140580172139</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>0.1593522123893805</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.000018163654527</v>
+        <v>1.000038998518056</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>4-oxopentanoic acid, deriv.</t>
+          <t>benzoic acid, deriv.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4-oxopentanoic acid</t>
+          <t>benzoic acid</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C5H8O3</t>
+          <t>C7H6O2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CC(=O)CCC(=O)O</t>
+          <t>C1=CC=C(C=C1)C(=O)O</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>116.11</v>
+        <v>122.12</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.5</v>
+        <v>1.9</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>4-oxopentanoic acid</t>
+          <t>benzoic acid</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5172250452157436</v>
+        <v>0.6884785456927611</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06945138230987856</v>
+        <v>0.04952505732066819</v>
       </c>
       <c r="M12" t="n">
-        <v>0.413375247610025</v>
+        <v>0.2620209629872257</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1458,109 +1458,109 @@
         <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1208078546206184</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.6313953488372093</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0.3877099302385669</v>
+        <v>0.3686292171634458</v>
       </c>
       <c r="W12" t="n">
-        <v>0.491533890276462</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>1.000018163654527</v>
+        <v>1.000038998518056</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>benzene-1,2-diol, deriv.</t>
+          <t>hexadecanoic acid, deriv.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>benzene-1,2-diol</t>
+          <t>hexadecanoic acid</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C6H6O2</t>
+          <t>C16H32O2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>C1=CC=C(C(=C1)O)O</t>
+          <t>CCCCCCCCCCCCCCCC(=O)O</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>110.11</v>
+        <v>256.42</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9</v>
+        <v>6.4</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>benzene-1,2-diol</t>
+          <t>hexadecanoic acid</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I13" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="J13" t="n">
         <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6544909635818728</v>
+        <v>0.7494579205990172</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05492689129052766</v>
+        <v>0.125793619842446</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2906003087821269</v>
+        <v>0.1247874580765931</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>0.8244793697839481</v>
       </c>
       <c r="T13" t="n">
-        <v>0.6911088911088911</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.3089092725456362</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>0.1755596287341081</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.000018163654527</v>
+        <v>1.000038998518056</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data_for_testing/deriv_compounds_properties.xlsx
+++ b/tests/data_for_testing/deriv_compounds_properties.xlsx
@@ -558,37 +558,37 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>(9z,12z)-octadeca-9,12-dienoic acid, deriv.</t>
+          <t>palmitic acid, tms derivative</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>(9z,12z)-octadeca-9,12-dienoic acid</t>
+          <t>hexadecanoic acid</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C18H32O2</t>
+          <t>C16H32O2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CCCCCC=CCC=CCCCCCCCC(=O)O</t>
+          <t>CCCCCCCCCCCCCCCC(=O)O</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>280.4</v>
+        <v>256.42</v>
       </c>
       <c r="F2" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>(9z,12z)-octadeca-9,12-dienoic acid</t>
+          <t>palmitic acid</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I2" t="n">
         <v>32</v>
@@ -597,16 +597,16 @@
         <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7710342368045648</v>
+        <v>0.7494579205990172</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1150356633380885</v>
+        <v>0.125793619842446</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1141155492154066</v>
+        <v>0.1247874580765931</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8396398002853066</v>
+        <v>0.8244793697839481</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -630,64 +630,64 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1605456490727532</v>
+        <v>0.1755596287341081</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1.000038998518056</v>
+        <v>0.9998867256637168</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>9-octadecenoic acid, (z)-, tms derivative</t>
+          <t>9,12-octadecadienoic acid (z,z)-, tms derivative</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>(z)-octadec-9-enoic acid</t>
+          <t>(9z,12z)-octadeca-9,12-dienoic acid</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C18H34O2</t>
+          <t>C18H32O2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CCCCCCCCC=CCCCCCCCC(=O)O</t>
+          <t>CCCCCC=CCC=CCCCCCCCC(=O)O</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>282.5</v>
+        <v>280.4</v>
       </c>
       <c r="F3" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>9-octadecenoic acid, (z)-</t>
+          <t>9,12-octadecadienoic acid (z,z)-</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>18</v>
       </c>
       <c r="I3" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7653026548672566</v>
+        <v>0.7710342368045648</v>
       </c>
       <c r="L3" t="n">
-        <v>0.121316814159292</v>
+        <v>0.1150356633380885</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1132672566371681</v>
+        <v>0.1141155492154066</v>
       </c>
       <c r="N3" t="n">
         <v>17</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8405345132743363</v>
+        <v>0.8396398002853066</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -714,70 +714,70 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1593522123893805</v>
+        <v>0.1605456490727532</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1.000038998518056</v>
+        <v>0.9998867256637168</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>4-oxopentanoic acid, deriv.</t>
+          <t>benzoic acid, deriv.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4-oxopentanoic acid</t>
+          <t>benzoic acid</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C5H8O3</t>
+          <t>C7H6O2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CC(=O)CCC(=O)O</t>
+          <t>C1=CC=C(C=C1)C(=O)O</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>116.11</v>
+        <v>122.12</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.5</v>
+        <v>1.9</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4-oxopentanoic acid</t>
+          <t>benzoic acid</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5172250452157436</v>
+        <v>0.6884785456927611</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06945138230987856</v>
+        <v>0.04952505732066819</v>
       </c>
       <c r="M4" t="n">
-        <v>0.413375247610025</v>
+        <v>0.2620209629872257</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -786,247 +786,247 @@
         <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1208078546206184</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.6313953488372093</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0.3877099302385669</v>
+        <v>0.3686292171634458</v>
       </c>
       <c r="W4" t="n">
-        <v>0.491533890276462</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>1.000038998518056</v>
+        <v>0.9998867256637168</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>benzene-1,2-diol, deriv.</t>
+          <t>myristic acid, tms derivative</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>benzene-1,2-diol</t>
+          <t>tetradecanoic acid</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C6H6O2</t>
+          <t>C14H28O2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>C1=CC=C(C(=C1)O)O</t>
+          <t>CCCCCCCCCCCCCC(=O)O</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>110.11</v>
+        <v>228.37</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9</v>
+        <v>5.3</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>benzene-1,2-diol</t>
+          <t>myristic acid</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="J5" t="n">
         <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6544909635818728</v>
+        <v>0.7363226343214958</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05492689129052766</v>
+        <v>0.1235889127293427</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2906003087821269</v>
+        <v>0.1401147261023777</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.8029031834303979</v>
       </c>
       <c r="T5" t="n">
-        <v>0.6911088911088911</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3089092725456362</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>0.1971230897228183</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>1.000038998518056</v>
+        <v>0.9998867256637168</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>9,12-octadecadienoic acid (z,z)-, tms derivative</t>
+          <t>benzene-1,2-diol, deriv.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>(9z,12z)-octadeca-9,12-dienoic acid</t>
+          <t>benzene-1,2-diol</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C18H32O2</t>
+          <t>C6H6O2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CCCCCC=CCC=CCCCCCCCC(=O)O</t>
+          <t>C1=CC=C(C(=C1)O)O</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>280.4</v>
+        <v>110.11</v>
       </c>
       <c r="F6" t="n">
-        <v>6.8</v>
+        <v>0.9</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>9,12-octadecadienoic acid (z,z)-</t>
+          <t>benzene-1,2-diol</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I6" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
         <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7710342368045648</v>
+        <v>0.6544909635818728</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1150356633380885</v>
+        <v>0.05492689129052766</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1141155492154066</v>
+        <v>0.2906003087821269</v>
       </c>
       <c r="N6" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8396398002853066</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.6911088911088911</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.3089092725456362</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1605456490727532</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>1.000038998518056</v>
+        <v>0.9998867256637168</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>palmitic acid, tms derivative</t>
+          <t>4-oxopentanoic acid, deriv.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>hexadecanoic acid</t>
+          <t>4-oxopentanoic acid</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C16H32O2</t>
+          <t>C5H8O3</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCCCCCC(=O)O</t>
+          <t>CC(=O)CCC(=O)O</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>256.42</v>
+        <v>116.11</v>
       </c>
       <c r="F7" t="n">
-        <v>6.4</v>
+        <v>-0.5</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>palmitic acid</t>
+          <t>4-oxopentanoic acid</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7494579205990172</v>
+        <v>0.5172250452157436</v>
       </c>
       <c r="L7" t="n">
-        <v>0.125793619842446</v>
+        <v>0.06945138230987856</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1247874580765931</v>
+        <v>0.413375247610025</v>
       </c>
       <c r="N7" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8244793697839481</v>
+        <v>0.1208078546206184</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1050,13 +1050,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1755596287341081</v>
+        <v>0.3877099302385669</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>0.491533890276462</v>
       </c>
       <c r="X7" t="n">
-        <v>1.000038998518056</v>
+        <v>0.9998867256637168</v>
       </c>
     </row>
     <row r="8">
@@ -1140,61 +1140,61 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>1.000038998518056</v>
+        <v>0.9998867256637168</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>myristic acid, tms derivative</t>
+          <t>palmitelaidic acid, tms derivative</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>tetradecanoic acid</t>
+          <t>(e)-hexadec-9-enoic acid</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C14H28O2</t>
+          <t>C16H30O2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCCCC(=O)O</t>
+          <t>CCCCCCC=CCCCCCCCC(=O)O</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>228.37</v>
+        <v>254.41</v>
       </c>
       <c r="F9" t="n">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>myristic acid</t>
+          <t>palmitelaidic acid</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I9" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J9" t="n">
         <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7363226343214958</v>
+        <v>0.7553791124562713</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1235889127293427</v>
+        <v>0.1188632522306513</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1401147261023777</v>
+        <v>0.1257733579654888</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8029031834303979</v>
+        <v>0.8230690617507173</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1218,67 +1218,67 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0.1971230897228183</v>
+        <v>0.1769466609016941</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>1.000038998518056</v>
+        <v>0.9998867256637168</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>palmitelaidic acid, tms derivative</t>
+          <t>9-octadecenoic acid, (z)-, tms derivative</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>(e)-hexadec-9-enoic acid</t>
+          <t>(z)-octadec-9-enoic acid</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C16H30O2</t>
+          <t>C18H34O2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CCCCCCC=CCCCCCCCC(=O)O</t>
+          <t>CCCCCCCCC=CCCCCCCCC(=O)O</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>254.41</v>
+        <v>282.5</v>
       </c>
       <c r="F10" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>palmitelaidic acid</t>
+          <t>9-octadecenoic acid, (z)-</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I10" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J10" t="n">
         <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7553791124562713</v>
+        <v>0.7653026548672566</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1188632522306513</v>
+        <v>0.121316814159292</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1257733579654888</v>
+        <v>0.1132672566371681</v>
       </c>
       <c r="N10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8230690617507173</v>
+        <v>0.8405345132743363</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1302,67 +1302,67 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0.1769466609016941</v>
+        <v>0.1593522123893805</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>1.000038998518056</v>
+        <v>0.9998867256637168</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>9-octadecenoic acid, (e)-, deriv.</t>
+          <t>hexadecanoic acid, deriv.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>(e)-octadec-9-enoic acid</t>
+          <t>hexadecanoic acid</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C18H34O2</t>
+          <t>C16H32O2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CCCCCCCCC=CCCCCCCCC(=O)O</t>
+          <t>CCCCCCCCCCCCCCCC(=O)O</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>282.5</v>
+        <v>256.42</v>
       </c>
       <c r="F11" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>9-octadecenoic acid, (e)-</t>
+          <t>hexadecanoic acid</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I11" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J11" t="n">
         <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7653026548672566</v>
+        <v>0.7494579205990172</v>
       </c>
       <c r="L11" t="n">
-        <v>0.121316814159292</v>
+        <v>0.125793619842446</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1132672566371681</v>
+        <v>0.1247874580765931</v>
       </c>
       <c r="N11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1377,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8405345132743363</v>
+        <v>0.8244793697839481</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1386,70 +1386,70 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1593522123893805</v>
+        <v>0.1755596287341081</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.000038998518056</v>
+        <v>0.9998867256637168</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>benzoic acid, deriv.</t>
+          <t>(9z,12z)-octadeca-9,12-dienoic acid, deriv.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>benzoic acid</t>
+          <t>(9z,12z)-octadeca-9,12-dienoic acid</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C7H6O2</t>
+          <t>C18H32O2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>C1=CC=C(C=C1)C(=O)O</t>
+          <t>CCCCCC=CCC=CCCCCCCCC(=O)O</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>122.12</v>
+        <v>280.4</v>
       </c>
       <c r="F12" t="n">
-        <v>1.9</v>
+        <v>6.8</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>benzoic acid</t>
+          <t>(9z,12z)-octadeca-9,12-dienoic acid</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="J12" t="n">
         <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6884785456927611</v>
+        <v>0.7710342368045648</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04952505732066819</v>
+        <v>0.1150356633380885</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2620209629872257</v>
+        <v>0.1141155492154066</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1461,76 +1461,76 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>0.8396398002853066</v>
       </c>
       <c r="T12" t="n">
-        <v>0.6313953488372093</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0.3686292171634458</v>
+        <v>0.1605456490727532</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>1.000038998518056</v>
+        <v>0.9998867256637168</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>hexadecanoic acid, deriv.</t>
+          <t>9-octadecenoic acid, (e)-, deriv.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>hexadecanoic acid</t>
+          <t>(e)-octadec-9-enoic acid</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C16H32O2</t>
+          <t>C18H34O2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCCCCCC(=O)O</t>
+          <t>CCCCCCCCC=CCCCCCCCC(=O)O</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>256.42</v>
+        <v>282.5</v>
       </c>
       <c r="F13" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>hexadecanoic acid</t>
+          <t>9-octadecenoic acid, (e)-</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I13" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J13" t="n">
         <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7494579205990172</v>
+        <v>0.7653026548672566</v>
       </c>
       <c r="L13" t="n">
-        <v>0.125793619842446</v>
+        <v>0.121316814159292</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1247874580765931</v>
+        <v>0.1132672566371681</v>
       </c>
       <c r="N13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8244793697839481</v>
+        <v>0.8405345132743363</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1554,13 +1554,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0.1755596287341081</v>
+        <v>0.1593522123893805</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.000038998518056</v>
+        <v>0.9998867256637168</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data_for_testing/deriv_compounds_properties.xlsx
+++ b/tests/data_for_testing/deriv_compounds_properties.xlsx
@@ -558,52 +558,52 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>palmitic acid, tms derivative</t>
+          <t>palmitelaidic acid, tms derivative</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>hexadecanoic acid</t>
+          <t>(e)-hexadec-9-enoic acid</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C16H32O2</t>
+          <t>C16H30O2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCCCCCC(=O)O</t>
+          <t>CCCCCCC=CCCCCCCCC(=O)O</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>256.42</v>
+        <v>254.41</v>
       </c>
       <c r="F2" t="n">
         <v>6.4</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>palmitic acid</t>
+          <t>palmitelaidic acid</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>16</v>
       </c>
       <c r="I2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7494579205990172</v>
+        <v>0.7553791124562713</v>
       </c>
       <c r="L2" t="n">
-        <v>0.125793619842446</v>
+        <v>0.1188632522306513</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1247874580765931</v>
+        <v>0.1257733579654888</v>
       </c>
       <c r="N2" t="n">
         <v>15</v>
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8244793697839481</v>
+        <v>0.8230690617507173</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1755596287341081</v>
+        <v>0.1769466609016941</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -642,58 +642,58 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>9,12-octadecadienoic acid (z,z)-, tms derivative</t>
+          <t>benzoic acid, deriv.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>(9z,12z)-octadeca-9,12-dienoic acid</t>
+          <t>benzoic acid</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C18H32O2</t>
+          <t>C7H6O2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CCCCCC=CCC=CCCCCCCCC(=O)O</t>
+          <t>C1=CC=C(C=C1)C(=O)O</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>280.4</v>
+        <v>122.12</v>
       </c>
       <c r="F3" t="n">
-        <v>6.8</v>
+        <v>1.9</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>9,12-octadecadienoic acid (z,z)-</t>
+          <t>benzoic acid</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7710342368045648</v>
+        <v>0.6884785456927611</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1150356633380885</v>
+        <v>0.04952505732066819</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1141155492154066</v>
+        <v>0.2620209629872257</v>
       </c>
       <c r="N3" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -705,16 +705,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8396398002853066</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.6313953488372093</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1605456490727532</v>
+        <v>0.3686292171634458</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -726,58 +726,58 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>benzoic acid, deriv.</t>
+          <t>9,12-octadecadienoic acid (z,z)-, tms derivative</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>benzoic acid</t>
+          <t>(9z,12z)-octadeca-9,12-dienoic acid</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C7H6O2</t>
+          <t>C18H32O2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>C1=CC=C(C=C1)C(=O)O</t>
+          <t>CCCCCC=CCC=CCCCCCCCC(=O)O</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>122.12</v>
+        <v>280.4</v>
       </c>
       <c r="F4" t="n">
-        <v>1.9</v>
+        <v>6.8</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>benzoic acid</t>
+          <t>9,12-octadecadienoic acid (z,z)-</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="J4" t="n">
         <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6884785456927611</v>
+        <v>0.7710342368045648</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04952505732066819</v>
+        <v>0.1150356633380885</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2620209629872257</v>
+        <v>0.1141155492154066</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -789,16 +789,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.8396398002853066</v>
       </c>
       <c r="T4" t="n">
-        <v>0.6313953488372093</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0.3686292171634458</v>
+        <v>0.1605456490727532</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -810,55 +810,55 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>myristic acid, tms derivative</t>
+          <t>4-oxopentanoic acid, deriv.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>tetradecanoic acid</t>
+          <t>4-oxopentanoic acid</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C14H28O2</t>
+          <t>C5H8O3</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCCCC(=O)O</t>
+          <t>CC(=O)CCC(=O)O</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>228.37</v>
+        <v>116.11</v>
       </c>
       <c r="F5" t="n">
-        <v>5.3</v>
+        <v>-0.5</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>myristic acid</t>
+          <t>4-oxopentanoic acid</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7363226343214958</v>
+        <v>0.5172250452157436</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1235889127293427</v>
+        <v>0.06945138230987856</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1401147261023777</v>
+        <v>0.413375247610025</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8029031834303979</v>
+        <v>0.1208078546206184</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1971230897228183</v>
+        <v>0.3877099302385669</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>0.491533890276462</v>
       </c>
       <c r="X5" t="n">
         <v>0.9998867256637168</v>
@@ -978,55 +978,55 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>4-oxopentanoic acid, deriv.</t>
+          <t>(9z,12z)-octadeca-9,12-dienoic acid, deriv.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4-oxopentanoic acid</t>
+          <t>(9z,12z)-octadeca-9,12-dienoic acid</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C5H8O3</t>
+          <t>C18H32O2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CC(=O)CCC(=O)O</t>
+          <t>CCCCCC=CCC=CCCCCCCCC(=O)O</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>116.11</v>
+        <v>280.4</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5</v>
+        <v>6.8</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>4-oxopentanoic acid</t>
+          <t>(9z,12z)-octadeca-9,12-dienoic acid</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5172250452157436</v>
+        <v>0.7710342368045648</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06945138230987856</v>
+        <v>0.1150356633380885</v>
       </c>
       <c r="M7" t="n">
-        <v>0.413375247610025</v>
+        <v>0.1141155492154066</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1208078546206184</v>
+        <v>0.8396398002853066</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1050,10 +1050,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3877099302385669</v>
+        <v>0.1605456490727532</v>
       </c>
       <c r="W7" t="n">
-        <v>0.491533890276462</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0.9998867256637168</v>
@@ -1062,79 +1062,79 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>phenol, deriv.</t>
+          <t>palmitic acid, tms derivative</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>phenol</t>
+          <t>hexadecanoic acid</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C6H6O</t>
+          <t>C16H32O2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>C1=CC=C(C=C1)O</t>
+          <t>CCCCCCCCCCCCCCCC(=O)O</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>94.11</v>
+        <v>256.42</v>
       </c>
       <c r="F8" t="n">
-        <v>1.5</v>
+        <v>6.4</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>phenol</t>
+          <t>palmitic acid</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.7494579205990172</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.125793619842446</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.1247874580765931</v>
+      </c>
+      <c r="N8" t="n">
+        <v>15</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
-        <v>0.765763468281798</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.06426522154925088</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.1700031877590054</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>6</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>0.8244793697839481</v>
       </c>
       <c r="T8" t="n">
-        <v>0.8193178195728402</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1807140580172139</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>0.1755596287341081</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1146,52 +1146,52 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>palmitelaidic acid, tms derivative</t>
+          <t>hexadecanoic acid, deriv.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>(e)-hexadec-9-enoic acid</t>
+          <t>hexadecanoic acid</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C16H30O2</t>
+          <t>C16H32O2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CCCCCCC=CCCCCCCCC(=O)O</t>
+          <t>CCCCCCCCCCCCCCCC(=O)O</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>254.41</v>
+        <v>256.42</v>
       </c>
       <c r="F9" t="n">
         <v>6.4</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>palmitelaidic acid</t>
+          <t>hexadecanoic acid</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>16</v>
       </c>
       <c r="I9" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J9" t="n">
         <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7553791124562713</v>
+        <v>0.7494579205990172</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1188632522306513</v>
+        <v>0.125793619842446</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1257733579654888</v>
+        <v>0.1247874580765931</v>
       </c>
       <c r="N9" t="n">
         <v>15</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8230690617507173</v>
+        <v>0.8244793697839481</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0.1769466609016941</v>
+        <v>0.1755596287341081</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1230,79 +1230,79 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>9-octadecenoic acid, (z)-, tms derivative</t>
+          <t>phenol, deriv.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>(z)-octadec-9-enoic acid</t>
+          <t>phenol</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C18H34O2</t>
+          <t>C6H6O</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CCCCCCCCC=CCCCCCCCC(=O)O</t>
+          <t>C1=CC=C(C=C1)O</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>282.5</v>
+        <v>94.11</v>
       </c>
       <c r="F10" t="n">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>9-octadecenoic acid, (z)-</t>
+          <t>phenol</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I10" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7653026548672566</v>
+        <v>0.765763468281798</v>
       </c>
       <c r="L10" t="n">
-        <v>0.121316814159292</v>
+        <v>0.06426522154925088</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1132672566371681</v>
+        <v>0.1700031877590054</v>
       </c>
       <c r="N10" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8405345132743363</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.8193178195728402</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.1807140580172139</v>
       </c>
       <c r="V10" t="n">
-        <v>0.1593522123893805</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1314,55 +1314,55 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>hexadecanoic acid, deriv.</t>
+          <t>myristic acid, tms derivative</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>hexadecanoic acid</t>
+          <t>tetradecanoic acid</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C16H32O2</t>
+          <t>C14H28O2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCCCCCC(=O)O</t>
+          <t>CCCCCCCCCCCCCC(=O)O</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>256.42</v>
+        <v>228.37</v>
       </c>
       <c r="F11" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>hexadecanoic acid</t>
+          <t>myristic acid</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I11" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J11" t="n">
         <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7494579205990172</v>
+        <v>0.7363226343214958</v>
       </c>
       <c r="L11" t="n">
-        <v>0.125793619842446</v>
+        <v>0.1235889127293427</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1247874580765931</v>
+        <v>0.1401147261023777</v>
       </c>
       <c r="N11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1377,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8244793697839481</v>
+        <v>0.8029031834303979</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1755596287341081</v>
+        <v>0.1971230897228183</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1398,52 +1398,52 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>(9z,12z)-octadeca-9,12-dienoic acid, deriv.</t>
+          <t>9-octadecenoic acid, (z)-, tms derivative</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>(9z,12z)-octadeca-9,12-dienoic acid</t>
+          <t>(z)-octadec-9-enoic acid</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C18H32O2</t>
+          <t>C18H34O2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CCCCCC=CCC=CCCCCCCCC(=O)O</t>
+          <t>CCCCCCCCC=CCCCCCCCC(=O)O</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>280.4</v>
+        <v>282.5</v>
       </c>
       <c r="F12" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>(9z,12z)-octadeca-9,12-dienoic acid</t>
+          <t>9-octadecenoic acid, (z)-</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>18</v>
       </c>
       <c r="I12" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J12" t="n">
         <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7710342368045648</v>
+        <v>0.7653026548672566</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1150356633380885</v>
+        <v>0.121316814159292</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1141155492154066</v>
+        <v>0.1132672566371681</v>
       </c>
       <c r="N12" t="n">
         <v>17</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8396398002853066</v>
+        <v>0.8405345132743363</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0.1605456490727532</v>
+        <v>0.1593522123893805</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>

--- a/tests/data_for_testing/deriv_compounds_properties.xlsx
+++ b/tests/data_for_testing/deriv_compounds_properties.xlsx
@@ -558,58 +558,58 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>palmitelaidic acid, tms derivative</t>
+          <t>benzoic acid, deriv.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>(e)-hexadec-9-enoic acid</t>
+          <t>benzoic acid</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C16H30O2</t>
+          <t>C7H6O2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CCCCCCC=CCCCCCCCC(=O)O</t>
+          <t>C1=CC=C(C=C1)C(=O)O</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>254.41</v>
+        <v>122.12</v>
       </c>
       <c r="F2" t="n">
-        <v>6.4</v>
+        <v>1.9</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>palmitelaidic acid</t>
+          <t>benzoic acid</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7553791124562713</v>
+        <v>0.6884785456927611</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1188632522306513</v>
+        <v>0.04952505732066819</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1257733579654888</v>
+        <v>0.2620209629872257</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -621,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8230690617507173</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.6313953488372093</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1769466609016941</v>
+        <v>0.3686292171634458</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0.9998867256637168</v>
+        <v>1.000031877590054</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>benzoic acid, deriv.</t>
+          <t>benzene-1,2-diol, deriv.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>benzoic acid</t>
+          <t>benzene-1,2-diol</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C7H6O2</t>
+          <t>C6H6O2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>C1=CC=C(C=C1)C(=O)O</t>
+          <t>C1=CC=C(C(=C1)O)O</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>122.12</v>
+        <v>110.11</v>
       </c>
       <c r="F3" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>benzoic acid</t>
+          <t>benzene-1,2-diol</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
         <v>6</v>
@@ -681,13 +681,13 @@
         <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6884785456927611</v>
+        <v>0.6544909635818728</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04952505732066819</v>
+        <v>0.05492689129052766</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2620209629872257</v>
+        <v>0.2906003087821269</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -696,10 +696,10 @@
         <v>6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -708,55 +708,55 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6313953488372093</v>
+        <v>0.6911088911088911</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.3089092725456362</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3686292171634458</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0.9998867256637168</v>
+        <v>1.000031877590054</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>9,12-octadecadienoic acid (z,z)-, tms derivative</t>
+          <t>hexadecanoic acid, deriv.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(9z,12z)-octadeca-9,12-dienoic acid</t>
+          <t>hexadecanoic acid</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C18H32O2</t>
+          <t>C16H32O2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CCCCCC=CCC=CCCCCCCCC(=O)O</t>
+          <t>CCCCCCCCCCCCCCCC(=O)O</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>280.4</v>
+        <v>256.42</v>
       </c>
       <c r="F4" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>9,12-octadecadienoic acid (z,z)-</t>
+          <t>hexadecanoic acid</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I4" t="n">
         <v>32</v>
@@ -765,16 +765,16 @@
         <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7710342368045648</v>
+        <v>0.7494579205990172</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1150356633380885</v>
+        <v>0.125793619842446</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1141155492154066</v>
+        <v>0.1247874580765931</v>
       </c>
       <c r="N4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8396398002853066</v>
+        <v>0.8244793697839481</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1605456490727532</v>
+        <v>0.1755596287341081</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0.9998867256637168</v>
+        <v>1.000031877590054</v>
       </c>
     </row>
     <row r="5">
@@ -888,127 +888,127 @@
         <v>0.491533890276462</v>
       </c>
       <c r="X5" t="n">
-        <v>0.9998867256637168</v>
+        <v>1.000031877590054</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>benzene-1,2-diol, deriv.</t>
+          <t>9,12-octadecadienoic acid (z,z)-, tms derivative</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>benzene-1,2-diol</t>
+          <t>(9z,12z)-octadeca-9,12-dienoic acid</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C6H6O2</t>
+          <t>C18H32O2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>C1=CC=C(C(=C1)O)O</t>
+          <t>CCCCCC=CCC=CCCCCCCCC(=O)O</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>110.11</v>
+        <v>280.4</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9</v>
+        <v>6.8</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>benzene-1,2-diol</t>
+          <t>9,12-octadecadienoic acid (z,z)-</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="J6" t="n">
         <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6544909635818728</v>
+        <v>0.7710342368045648</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05492689129052766</v>
+        <v>0.1150356633380885</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2906003087821269</v>
+        <v>0.1141155492154066</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.8396398002853066</v>
       </c>
       <c r="T6" t="n">
-        <v>0.6911088911088911</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.3089092725456362</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>0.1605456490727532</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0.9998867256637168</v>
+        <v>1.000031877590054</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>(9z,12z)-octadeca-9,12-dienoic acid, deriv.</t>
+          <t>palmitic acid, tms derivative</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(9z,12z)-octadeca-9,12-dienoic acid</t>
+          <t>hexadecanoic acid</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C18H32O2</t>
+          <t>C16H32O2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CCCCCC=CCC=CCCCCCCCC(=O)O</t>
+          <t>CCCCCCCCCCCCCCCC(=O)O</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>280.4</v>
+        <v>256.42</v>
       </c>
       <c r="F7" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>(9z,12z)-octadeca-9,12-dienoic acid</t>
+          <t>palmitic acid</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I7" t="n">
         <v>32</v>
@@ -1017,16 +1017,16 @@
         <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7710342368045648</v>
+        <v>0.7494579205990172</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1150356633380885</v>
+        <v>0.125793619842446</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1141155492154066</v>
+        <v>0.1247874580765931</v>
       </c>
       <c r="N7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8396398002853066</v>
+        <v>0.8244793697839481</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1050,67 +1050,67 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1605456490727532</v>
+        <v>0.1755596287341081</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0.9998867256637168</v>
+        <v>1.000031877590054</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>palmitic acid, tms derivative</t>
+          <t>9-octadecenoic acid, (z)-, tms derivative</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>hexadecanoic acid</t>
+          <t>(z)-octadec-9-enoic acid</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C16H32O2</t>
+          <t>C18H34O2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCCCCCC(=O)O</t>
+          <t>CCCCCCCCC=CCCCCCCCC(=O)O</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>256.42</v>
+        <v>282.5</v>
       </c>
       <c r="F8" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>palmitic acid</t>
+          <t>9-octadecenoic acid, (z)-</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J8" t="n">
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7494579205990172</v>
+        <v>0.7653026548672566</v>
       </c>
       <c r="L8" t="n">
-        <v>0.125793619842446</v>
+        <v>0.121316814159292</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1247874580765931</v>
+        <v>0.1132672566371681</v>
       </c>
       <c r="N8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8244793697839481</v>
+        <v>0.8405345132743363</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1134,49 +1134,49 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1755596287341081</v>
+        <v>0.1593522123893805</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0.9998867256637168</v>
+        <v>1.000031877590054</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>hexadecanoic acid, deriv.</t>
+          <t>(9z,12z)-octadeca-9,12-dienoic acid, deriv.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>hexadecanoic acid</t>
+          <t>(9z,12z)-octadeca-9,12-dienoic acid</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C16H32O2</t>
+          <t>C18H32O2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCCCCCC(=O)O</t>
+          <t>CCCCCC=CCC=CCCCCCCCC(=O)O</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>256.42</v>
+        <v>280.4</v>
       </c>
       <c r="F9" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>hexadecanoic acid</t>
+          <t>(9z,12z)-octadeca-9,12-dienoic acid</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I9" t="n">
         <v>32</v>
@@ -1185,16 +1185,16 @@
         <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7494579205990172</v>
+        <v>0.7710342368045648</v>
       </c>
       <c r="L9" t="n">
-        <v>0.125793619842446</v>
+        <v>0.1150356633380885</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1247874580765931</v>
+        <v>0.1141155492154066</v>
       </c>
       <c r="N9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8244793697839481</v>
+        <v>0.8396398002853066</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1218,97 +1218,97 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0.1755596287341081</v>
+        <v>0.1605456490727532</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0.9998867256637168</v>
+        <v>1.000031877590054</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>phenol, deriv.</t>
+          <t>9-octadecenoic acid, (e)-, deriv.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>phenol</t>
+          <t>(e)-octadec-9-enoic acid</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C6H6O</t>
+          <t>C18H34O2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>C1=CC=C(C=C1)O</t>
+          <t>CCCCCCCCC=CCCCCCCCC(=O)O</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>94.11</v>
+        <v>282.5</v>
       </c>
       <c r="F10" t="n">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>phenol</t>
+          <t>9-octadecenoic acid, (e)-</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.7653026548672566</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.121316814159292</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.1132672566371681</v>
+      </c>
+      <c r="N10" t="n">
+        <v>17</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>1</v>
       </c>
-      <c r="K10" t="n">
-        <v>0.765763468281798</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.06426522154925088</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.1700031877590054</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>6</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.8405345132743363</v>
       </c>
       <c r="T10" t="n">
-        <v>0.8193178195728402</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1807140580172139</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>0.1593522123893805</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0.9998867256637168</v>
+        <v>1.000031877590054</v>
       </c>
     </row>
     <row r="11">
@@ -1392,61 +1392,61 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0.9998867256637168</v>
+        <v>1.000031877590054</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>9-octadecenoic acid, (z)-, tms derivative</t>
+          <t>palmitelaidic acid, tms derivative</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>(z)-octadec-9-enoic acid</t>
+          <t>(e)-hexadec-9-enoic acid</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C18H34O2</t>
+          <t>C16H30O2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CCCCCCCCC=CCCCCCCCC(=O)O</t>
+          <t>CCCCCCC=CCCCCCCCC(=O)O</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>282.5</v>
+        <v>254.41</v>
       </c>
       <c r="F12" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>9-octadecenoic acid, (z)-</t>
+          <t>palmitelaidic acid</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I12" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J12" t="n">
         <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7653026548672566</v>
+        <v>0.7553791124562713</v>
       </c>
       <c r="L12" t="n">
-        <v>0.121316814159292</v>
+        <v>0.1188632522306513</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1132672566371681</v>
+        <v>0.1257733579654888</v>
       </c>
       <c r="N12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8405345132743363</v>
+        <v>0.8230690617507173</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1470,97 +1470,97 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0.1593522123893805</v>
+        <v>0.1769466609016941</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0.9998867256637168</v>
+        <v>1.000031877590054</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>9-octadecenoic acid, (e)-, deriv.</t>
+          <t>phenol, deriv.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>(e)-octadec-9-enoic acid</t>
+          <t>phenol</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C18H34O2</t>
+          <t>C6H6O</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CCCCCCCCC=CCCCCCCCC(=O)O</t>
+          <t>C1=CC=C(C=C1)O</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>282.5</v>
+        <v>94.11</v>
       </c>
       <c r="F13" t="n">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>9-octadecenoic acid, (e)-</t>
+          <t>phenol</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I13" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7653026548672566</v>
+        <v>0.765763468281798</v>
       </c>
       <c r="L13" t="n">
-        <v>0.121316814159292</v>
+        <v>0.06426522154925088</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1132672566371681</v>
+        <v>0.1700031877590054</v>
       </c>
       <c r="N13" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8405345132743363</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.8193178195728402</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.1807140580172139</v>
       </c>
       <c r="V13" t="n">
-        <v>0.1593522123893805</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0.9998867256637168</v>
+        <v>1.000031877590054</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data_for_testing/deriv_compounds_properties.xlsx
+++ b/tests/data_for_testing/deriv_compounds_properties.xlsx
@@ -558,37 +558,37 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>benzoic acid, deriv.</t>
+          <t>benzene-1,2-diol, deriv.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>benzoic acid</t>
+          <t>benzene-1,2-diol</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C7H6O2</t>
+          <t>C6H6O2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>C1=CC=C(C=C1)C(=O)O</t>
+          <t>C1=CC=C(C(=C1)O)O</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>122.12</v>
+        <v>110.11</v>
       </c>
       <c r="F2" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>benzoic acid</t>
+          <t>benzene-1,2-diol</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I2" t="n">
         <v>6</v>
@@ -597,13 +597,13 @@
         <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6884785456927611</v>
+        <v>0.6544909635818728</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04952505732066819</v>
+        <v>0.05492689129052766</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2620209629872257</v>
+        <v>0.2906003087821269</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -612,10 +612,10 @@
         <v>6</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -624,157 +624,157 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6313953488372093</v>
+        <v>0.6911088911088911</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.3089092725456362</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3686292171634458</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1.000031877590054</v>
+        <v>1.000015722652411</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>benzene-1,2-diol, deriv.</t>
+          <t>hexadecanoic acid, deriv.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>benzene-1,2-diol</t>
+          <t>hexadecanoic acid</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C6H6O2</t>
+          <t>C16H32O2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>C1=CC=C(C(=C1)O)O</t>
+          <t>CCCCCCCCCCCCCCCC(=O)O</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>110.11</v>
+        <v>256.42</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9</v>
+        <v>6.4</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>benzene-1,2-diol</t>
+          <t>hexadecanoic acid</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6544909635818728</v>
+        <v>0.7494579205990172</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05492689129052766</v>
+        <v>0.125793619842446</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2906003087821269</v>
+        <v>0.1247874580765931</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.8244793697839481</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6911088911088911</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.3089092725456362</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>0.1755596287341081</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1.000031877590054</v>
+        <v>1.000015722652411</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>hexadecanoic acid, deriv.</t>
+          <t>9-octadecenoic acid, (z)-, tms derivative</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>hexadecanoic acid</t>
+          <t>(z)-octadec-9-enoic acid</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C16H32O2</t>
+          <t>C18H34O2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCCCCCC(=O)O</t>
+          <t>CCCCCCCCC=CCCCCCCCC(=O)O</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>256.42</v>
+        <v>282.5</v>
       </c>
       <c r="F4" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>hexadecanoic acid</t>
+          <t>9-octadecenoic acid, (z)-</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I4" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J4" t="n">
         <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7494579205990172</v>
+        <v>0.7653026548672566</v>
       </c>
       <c r="L4" t="n">
-        <v>0.125793619842446</v>
+        <v>0.121316814159292</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1247874580765931</v>
+        <v>0.1132672566371681</v>
       </c>
       <c r="N4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8244793697839481</v>
+        <v>0.8405345132743363</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -798,133 +798,133 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1755596287341081</v>
+        <v>0.1593522123893805</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>1.000031877590054</v>
+        <v>1.000015722652411</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>4-oxopentanoic acid, deriv.</t>
+          <t>phenol, deriv.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4-oxopentanoic acid</t>
+          <t>phenol</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C5H8O3</t>
+          <t>C6H6O</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CC(=O)CCC(=O)O</t>
+          <t>C1=CC=C(C=C1)O</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>116.11</v>
+        <v>94.11</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4-oxopentanoic acid</t>
+          <t>phenol</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5172250452157436</v>
+        <v>0.765763468281798</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06945138230987856</v>
+        <v>0.06426522154925088</v>
       </c>
       <c r="M5" t="n">
-        <v>0.413375247610025</v>
+        <v>0.1700031877590054</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>6</v>
+      </c>
+      <c r="P5" t="n">
         <v>1</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1208078546206184</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.8193178195728402</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.1807140580172139</v>
       </c>
       <c r="V5" t="n">
-        <v>0.3877099302385669</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.491533890276462</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>1.000031877590054</v>
+        <v>1.000015722652411</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>9,12-octadecadienoic acid (z,z)-, tms derivative</t>
+          <t>palmitic acid, tms derivative</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>(9z,12z)-octadeca-9,12-dienoic acid</t>
+          <t>hexadecanoic acid</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C18H32O2</t>
+          <t>C16H32O2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CCCCCC=CCC=CCCCCCCCC(=O)O</t>
+          <t>CCCCCCCCCCCCCCCC(=O)O</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>280.4</v>
+        <v>256.42</v>
       </c>
       <c r="F6" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>9,12-octadecadienoic acid (z,z)-</t>
+          <t>palmitic acid</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I6" t="n">
         <v>32</v>
@@ -933,16 +933,16 @@
         <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7710342368045648</v>
+        <v>0.7494579205990172</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1150356633380885</v>
+        <v>0.125793619842446</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1141155492154066</v>
+        <v>0.1247874580765931</v>
       </c>
       <c r="N6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8396398002853066</v>
+        <v>0.8244793697839481</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -966,67 +966,67 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1605456490727532</v>
+        <v>0.1755596287341081</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>1.000031877590054</v>
+        <v>1.000015722652411</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>palmitic acid, tms derivative</t>
+          <t>myristic acid, tms derivative</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>hexadecanoic acid</t>
+          <t>tetradecanoic acid</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C16H32O2</t>
+          <t>C14H28O2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCCCCCC(=O)O</t>
+          <t>CCCCCCCCCCCCCC(=O)O</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>256.42</v>
+        <v>228.37</v>
       </c>
       <c r="F7" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>palmitic acid</t>
+          <t>myristic acid</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I7" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J7" t="n">
         <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7494579205990172</v>
+        <v>0.7363226343214958</v>
       </c>
       <c r="L7" t="n">
-        <v>0.125793619842446</v>
+        <v>0.1235889127293427</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1247874580765931</v>
+        <v>0.1401147261023777</v>
       </c>
       <c r="N7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8244793697839481</v>
+        <v>0.8029031834303979</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1050,24 +1050,24 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1755596287341081</v>
+        <v>0.1971230897228183</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>1.000031877590054</v>
+        <v>1.000015722652411</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>9-octadecenoic acid, (z)-, tms derivative</t>
+          <t>9-octadecenoic acid, (e)-, deriv.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>(z)-octadec-9-enoic acid</t>
+          <t>(e)-octadec-9-enoic acid</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>9-octadecenoic acid, (z)-</t>
+          <t>9-octadecenoic acid, (e)-</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1140,61 +1140,61 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>1.000031877590054</v>
+        <v>1.000015722652411</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>(9z,12z)-octadeca-9,12-dienoic acid, deriv.</t>
+          <t>4-oxopentanoic acid, deriv.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>(9z,12z)-octadeca-9,12-dienoic acid</t>
+          <t>4-oxopentanoic acid</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C18H32O2</t>
+          <t>C5H8O3</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CCCCCC=CCC=CCCCCCCCC(=O)O</t>
+          <t>CC(=O)CCC(=O)O</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>280.4</v>
+        <v>116.11</v>
       </c>
       <c r="F9" t="n">
-        <v>6.8</v>
+        <v>-0.5</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>(9z,12z)-octadeca-9,12-dienoic acid</t>
+          <t>4-oxopentanoic acid</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7710342368045648</v>
+        <v>0.5172250452157436</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1150356633380885</v>
+        <v>0.06945138230987856</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1141155492154066</v>
+        <v>0.413375247610025</v>
       </c>
       <c r="N9" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8396398002853066</v>
+        <v>0.1208078546206184</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1218,64 +1218,64 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0.1605456490727532</v>
+        <v>0.3877099302385669</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>0.491533890276462</v>
       </c>
       <c r="X9" t="n">
-        <v>1.000031877590054</v>
+        <v>1.000015722652411</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>9-octadecenoic acid, (e)-, deriv.</t>
+          <t>9,12-octadecadienoic acid (z,z)-, tms derivative</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>(e)-octadec-9-enoic acid</t>
+          <t>(9z,12z)-octadeca-9,12-dienoic acid</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C18H34O2</t>
+          <t>C18H32O2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CCCCCCCCC=CCCCCCCCC(=O)O</t>
+          <t>CCCCCC=CCC=CCCCCCCCC(=O)O</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>282.5</v>
+        <v>280.4</v>
       </c>
       <c r="F10" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>9-octadecenoic acid, (e)-</t>
+          <t>9,12-octadecadienoic acid (z,z)-</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>18</v>
       </c>
       <c r="I10" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J10" t="n">
         <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7653026548672566</v>
+        <v>0.7710342368045648</v>
       </c>
       <c r="L10" t="n">
-        <v>0.121316814159292</v>
+        <v>0.1150356633380885</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1132672566371681</v>
+        <v>0.1141155492154066</v>
       </c>
       <c r="N10" t="n">
         <v>17</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8405345132743363</v>
+        <v>0.8396398002853066</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1302,67 +1302,67 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0.1593522123893805</v>
+        <v>0.1605456490727532</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>1.000031877590054</v>
+        <v>1.000015722652411</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>myristic acid, tms derivative</t>
+          <t>(9z,12z)-octadeca-9,12-dienoic acid, deriv.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>tetradecanoic acid</t>
+          <t>(9z,12z)-octadeca-9,12-dienoic acid</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C14H28O2</t>
+          <t>C18H32O2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCCCC(=O)O</t>
+          <t>CCCCCC=CCC=CCCCCCCCC(=O)O</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>228.37</v>
+        <v>280.4</v>
       </c>
       <c r="F11" t="n">
-        <v>5.3</v>
+        <v>6.8</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>myristic acid</t>
+          <t>(9z,12z)-octadeca-9,12-dienoic acid</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I11" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J11" t="n">
         <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7363226343214958</v>
+        <v>0.7710342368045648</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1235889127293427</v>
+        <v>0.1150356633380885</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1401147261023777</v>
+        <v>0.1141155492154066</v>
       </c>
       <c r="N11" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1377,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8029031834303979</v>
+        <v>0.8396398002853066</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1386,70 +1386,70 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1971230897228183</v>
+        <v>0.1605456490727532</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.000031877590054</v>
+        <v>1.000015722652411</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>palmitelaidic acid, tms derivative</t>
+          <t>benzoic acid, deriv.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>(e)-hexadec-9-enoic acid</t>
+          <t>benzoic acid</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C16H30O2</t>
+          <t>C7H6O2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CCCCCCC=CCCCCCCCC(=O)O</t>
+          <t>C1=CC=C(C=C1)C(=O)O</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>254.41</v>
+        <v>122.12</v>
       </c>
       <c r="F12" t="n">
-        <v>6.4</v>
+        <v>1.9</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>palmitelaidic acid</t>
+          <t>benzoic acid</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I12" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
         <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7553791124562713</v>
+        <v>0.6884785456927611</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1188632522306513</v>
+        <v>0.04952505732066819</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1257733579654888</v>
+        <v>0.2620209629872257</v>
       </c>
       <c r="N12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1461,106 +1461,106 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8230690617507173</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.6313953488372093</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0.1769466609016941</v>
+        <v>0.3686292171634458</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>1.000031877590054</v>
+        <v>1.000015722652411</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>phenol, deriv.</t>
+          <t>palmitelaidic acid, tms derivative</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>phenol</t>
+          <t>(e)-hexadec-9-enoic acid</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C6H6O</t>
+          <t>C16H30O2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>C1=CC=C(C=C1)O</t>
+          <t>CCCCCCC=CCCCCCCCC(=O)O</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>94.11</v>
+        <v>254.41</v>
       </c>
       <c r="F13" t="n">
-        <v>1.5</v>
+        <v>6.4</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>phenol</t>
+          <t>palmitelaidic acid</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I13" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="J13" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.7553791124562713</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.1188632522306513</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.1257733579654888</v>
+      </c>
+      <c r="N13" t="n">
+        <v>15</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1</v>
       </c>
-      <c r="K13" t="n">
-        <v>0.765763468281798</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.06426522154925088</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.1700031877590054</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>6</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>0.8230690617507173</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8193178195728402</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1807140580172139</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>0.1769466609016941</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.000031877590054</v>
+        <v>1.000015722652411</v>
       </c>
     </row>
   </sheetData>
